--- a/Labor.xlsx
+++ b/Labor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abduerrasit\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B7CA63-DB39-4CFA-9753-1CA54616DA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD1352-DB49-4291-BF17-938DA2965D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{27C021AD-5DAE-4F53-991F-668E3BB5339B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Bauteil</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>30CTQ045</t>
+  </si>
+  <si>
+    <t>896-7721</t>
+  </si>
+  <si>
+    <t>STM32 Nucleo64</t>
+  </si>
+  <si>
+    <t>MCU</t>
   </si>
 </sst>
 </file>
@@ -430,16 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9274EC-461E-4628-A32E-558A1AB686C2}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -514,6 +523,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Labor.xlsx
+++ b/Labor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abduerrasit\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD1352-DB49-4291-BF17-938DA2965D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3507F2-A6AE-4F08-9262-9D9DFB1FD1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{27C021AD-5DAE-4F53-991F-668E3BB5339B}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>896-7721</t>
   </si>
   <si>
-    <t>STM32 Nucleo64</t>
-  </si>
-  <si>
     <t>MCU</t>
+  </si>
+  <si>
+    <t>STM32 Nucleo64 STM32L476RGT6</t>
   </si>
 </sst>
 </file>
@@ -442,12 +442,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -525,10 +525,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
